--- a/crisscross_kit/crisscross/dna_source_plates/cargo_plates/sw_src004_pulldownhandles.xlsx
+++ b/crisscross_kit/crisscross/dna_source_plates/cargo_plates/sw_src004_pulldownhandles.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stellawang/Documents/gitrepos/Crisscross-Design/crisscross_kit/crisscross/dna_source_plates/cargo_plates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Documents/Shih_Lab_Postdoc/research_projects/crisscross_code/crisscross_kit/crisscross/dna_source_plates/cargo_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F25B3D-2331-EF44-8D25-C05C89FA8B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF2079F-CABB-9B46-8D6E-CDD14712B960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5580" yWindow="-21840" windowWidth="38060" windowHeight="20020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="28180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
     <sheet name="2D Layout" sheetId="2" r:id="rId2"/>
     <sheet name="2D Label" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="583">
   <si>
     <t>well</t>
   </si>
@@ -1192,9 +1205,6 @@
   </si>
   <si>
     <t>NON-SLAT OLIGO</t>
-  </si>
-  <si>
-    <t>CARGO-SSW041DoublePurification5primetoehold-h2-position_32</t>
   </si>
   <si>
     <t>CARGO-SSW042DoublePurification3primetoehold-h2-position_32</t>
@@ -1868,7 +1878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1884,6 +1894,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2190,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E385"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2228,10 +2239,10 @@
         <v>389</v>
       </c>
       <c r="C2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E2">
         <v>200</v>
@@ -2245,10 +2256,10 @@
         <v>389</v>
       </c>
       <c r="C3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E3">
         <v>200</v>
@@ -2262,10 +2273,10 @@
         <v>389</v>
       </c>
       <c r="C4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E4">
         <v>200</v>
@@ -2279,10 +2290,10 @@
         <v>389</v>
       </c>
       <c r="C5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E5">
         <v>200</v>
@@ -2296,10 +2307,10 @@
         <v>389</v>
       </c>
       <c r="C6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E6">
         <v>200</v>
@@ -2313,10 +2324,10 @@
         <v>389</v>
       </c>
       <c r="C7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E7">
         <v>200</v>
@@ -2330,10 +2341,10 @@
         <v>389</v>
       </c>
       <c r="C8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E8">
         <v>200</v>
@@ -2347,10 +2358,10 @@
         <v>389</v>
       </c>
       <c r="C9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E9">
         <v>200</v>
@@ -2364,10 +2375,10 @@
         <v>389</v>
       </c>
       <c r="C10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E10">
         <v>200</v>
@@ -2381,10 +2392,10 @@
         <v>389</v>
       </c>
       <c r="C11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E11">
         <v>200</v>
@@ -2398,10 +2409,10 @@
         <v>389</v>
       </c>
       <c r="C12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E12">
         <v>200</v>
@@ -2415,10 +2426,10 @@
         <v>389</v>
       </c>
       <c r="C13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E13">
         <v>200</v>
@@ -2432,10 +2443,10 @@
         <v>389</v>
       </c>
       <c r="C14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E14">
         <v>200</v>
@@ -2449,10 +2460,10 @@
         <v>389</v>
       </c>
       <c r="C15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E15">
         <v>200</v>
@@ -2466,10 +2477,10 @@
         <v>389</v>
       </c>
       <c r="C16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E16">
         <v>200</v>
@@ -2483,10 +2494,10 @@
         <v>389</v>
       </c>
       <c r="C17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E17">
         <v>200</v>
@@ -2500,10 +2511,10 @@
         <v>389</v>
       </c>
       <c r="C18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E18">
         <v>200</v>
@@ -2517,10 +2528,10 @@
         <v>389</v>
       </c>
       <c r="C19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E19">
         <v>200</v>
@@ -2534,10 +2545,10 @@
         <v>389</v>
       </c>
       <c r="C20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E20">
         <v>200</v>
@@ -2551,10 +2562,10 @@
         <v>389</v>
       </c>
       <c r="C21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E21">
         <v>200</v>
@@ -2568,10 +2579,10 @@
         <v>389</v>
       </c>
       <c r="C22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E22">
         <v>200</v>
@@ -2585,10 +2596,10 @@
         <v>389</v>
       </c>
       <c r="C23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E23">
         <v>200</v>
@@ -2602,10 +2613,10 @@
         <v>389</v>
       </c>
       <c r="C24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E24">
         <v>200</v>
@@ -2619,10 +2630,10 @@
         <v>389</v>
       </c>
       <c r="C25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E25">
         <v>200</v>
@@ -2636,10 +2647,10 @@
         <v>389</v>
       </c>
       <c r="C26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E26">
         <v>200</v>
@@ -2663,10 +2674,10 @@
         <v>389</v>
       </c>
       <c r="C29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D29" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E29">
         <v>200</v>
@@ -2690,10 +2701,10 @@
         <v>389</v>
       </c>
       <c r="C32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E32">
         <v>200</v>
@@ -2717,10 +2728,10 @@
         <v>389</v>
       </c>
       <c r="C35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E35">
         <v>200</v>
@@ -2744,10 +2755,10 @@
         <v>389</v>
       </c>
       <c r="C38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E38">
         <v>200</v>
@@ -2771,10 +2782,10 @@
         <v>389</v>
       </c>
       <c r="C41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D41" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E41">
         <v>200</v>
@@ -2798,10 +2809,10 @@
         <v>389</v>
       </c>
       <c r="C44" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E44">
         <v>200</v>
@@ -2825,10 +2836,10 @@
         <v>389</v>
       </c>
       <c r="C47" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D47" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E47">
         <v>200</v>
@@ -2843,19 +2854,20 @@
       <c r="A49" t="s">
         <v>52</v>
       </c>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
-      <c r="B50" t="s">
-        <v>390</v>
+      <c r="B50" s="9" t="s">
+        <v>573</v>
       </c>
       <c r="C50" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D50" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E50">
         <v>200</v>
@@ -2866,13 +2878,13 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C51" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D51" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E51">
         <v>200</v>
@@ -2883,13 +2895,13 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C52" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D52" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E52">
         <v>200</v>
@@ -2900,13 +2912,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C53" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D53" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E53">
         <v>200</v>
@@ -2917,13 +2929,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C54" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E54">
         <v>200</v>
@@ -2953,6 +2965,7 @@
       <c r="A59" t="s">
         <v>62</v>
       </c>
+      <c r="B59" s="9"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -3149,13 +3162,13 @@
         <v>101</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D98" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E98">
         <v>200</v>
@@ -3166,13 +3179,13 @@
         <v>102</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D99" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E99">
         <v>200</v>
@@ -3183,13 +3196,13 @@
         <v>103</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D100" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E100">
         <v>200</v>
@@ -3200,13 +3213,13 @@
         <v>104</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D101" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E101">
         <v>200</v>
@@ -3217,13 +3230,13 @@
         <v>105</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D102" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E102">
         <v>200</v>
@@ -3234,13 +3247,13 @@
         <v>106</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D103" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E103">
         <v>200</v>
@@ -3251,13 +3264,13 @@
         <v>107</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D104" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E104">
         <v>200</v>
@@ -3268,13 +3281,13 @@
         <v>108</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D105" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E105">
         <v>200</v>
@@ -3285,13 +3298,13 @@
         <v>109</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D106" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E106">
         <v>200</v>
@@ -3302,13 +3315,13 @@
         <v>110</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D107" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E107">
         <v>200</v>
@@ -3319,13 +3332,13 @@
         <v>111</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D108" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E108">
         <v>200</v>
@@ -3336,13 +3349,13 @@
         <v>112</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D109" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E109">
         <v>200</v>
@@ -3413,13 +3426,13 @@
         <v>125</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D122" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E122">
         <v>200</v>
@@ -3430,13 +3443,13 @@
         <v>126</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D123" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E123">
         <v>200</v>
@@ -3447,13 +3460,13 @@
         <v>127</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D124" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E124">
         <v>200</v>
@@ -3464,13 +3477,13 @@
         <v>128</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D125" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E125">
         <v>200</v>
@@ -3481,13 +3494,13 @@
         <v>129</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D126" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E126">
         <v>200</v>
@@ -3498,13 +3511,13 @@
         <v>130</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D127" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E127">
         <v>200</v>
@@ -3515,13 +3528,13 @@
         <v>131</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D128" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E128">
         <v>200</v>
@@ -3532,13 +3545,13 @@
         <v>132</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D129" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E129">
         <v>200</v>
@@ -3549,13 +3562,13 @@
         <v>133</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D130" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E130">
         <v>200</v>
@@ -3566,13 +3579,13 @@
         <v>134</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D131" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E131">
         <v>200</v>
@@ -3583,13 +3596,13 @@
         <v>135</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D132" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E132">
         <v>200</v>
@@ -3600,13 +3613,13 @@
         <v>136</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D133" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E133">
         <v>200</v>
@@ -4881,96 +4894,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="60.6640625" customWidth="1"/>
-    <col min="3" max="24" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="24" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>389</v>
@@ -5047,7 +5062,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B3" t="s">
         <v>389</v>
@@ -5076,159 +5091,159 @@
     </row>
     <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>535</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -5240,7 +5255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="119" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -5251,342 +5266,342 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
